--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H2">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I2">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J2">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N2">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O2">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P2">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q2">
-        <v>22.98486440840778</v>
+        <v>19.01062278042522</v>
       </c>
       <c r="R2">
-        <v>206.86377967567</v>
+        <v>171.095605023827</v>
       </c>
       <c r="S2">
-        <v>0.01006558982111909</v>
+        <v>0.01191947351841163</v>
       </c>
       <c r="T2">
-        <v>0.01318233659152222</v>
+        <v>0.0135997310738247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H3">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I3">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J3">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P3">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q3">
-        <v>150.0516307110456</v>
+        <v>131.8492734537061</v>
       </c>
       <c r="R3">
-        <v>1350.46467639941</v>
+        <v>1186.643461083355</v>
       </c>
       <c r="S3">
-        <v>0.06571098875723351</v>
+        <v>0.08266819774949587</v>
       </c>
       <c r="T3">
-        <v>0.08605798437585035</v>
+        <v>0.09432172117453745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H4">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I4">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J4">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N4">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O4">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P4">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q4">
-        <v>20.71644528729533</v>
+        <v>15.54872161229445</v>
       </c>
       <c r="R4">
-        <v>186.448007585658</v>
+        <v>139.93849451065</v>
       </c>
       <c r="S4">
-        <v>0.009072197995533675</v>
+        <v>0.009748895532961217</v>
       </c>
       <c r="T4">
-        <v>0.01188134721634841</v>
+        <v>0.01112317228695444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H5">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I5">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J5">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N5">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O5">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P5">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q5">
-        <v>222.223964432639</v>
+        <v>36.89938795560418</v>
       </c>
       <c r="R5">
-        <v>1333.343786595834</v>
+        <v>221.396327733625</v>
       </c>
       <c r="S5">
-        <v>0.09731687925832105</v>
+        <v>0.02313555335153429</v>
       </c>
       <c r="T5">
-        <v>0.08496696045425832</v>
+        <v>0.01759794190791956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.9889473333333</v>
+        <v>108.9481836666667</v>
       </c>
       <c r="H6">
-        <v>371.966842</v>
+        <v>326.844551</v>
       </c>
       <c r="I6">
-        <v>0.1954468191201632</v>
+        <v>0.1523660837152667</v>
       </c>
       <c r="J6">
-        <v>0.2134822208566356</v>
+        <v>0.1650457680857909</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N6">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O6">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P6">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q6">
-        <v>30.32765518808423</v>
+        <v>39.7039139415209</v>
       </c>
       <c r="R6">
-        <v>272.9488966927581</v>
+        <v>357.335225473688</v>
       </c>
       <c r="S6">
-        <v>0.01328116328795592</v>
+        <v>0.02489396356286372</v>
       </c>
       <c r="T6">
-        <v>0.01739359221865629</v>
+        <v>0.02840320164255481</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J7">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N7">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O7">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P7">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q7">
-        <v>39.15711807458888</v>
+        <v>36.85768868769555</v>
       </c>
       <c r="R7">
-        <v>352.4140626712999</v>
+        <v>331.7191981892599</v>
       </c>
       <c r="S7">
-        <v>0.0171477839552434</v>
+        <v>0.02310940832065789</v>
       </c>
       <c r="T7">
-        <v>0.02245748772937688</v>
+        <v>0.02636708223317861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J8">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P8">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q8">
         <v>255.6286309388777</v>
@@ -948,10 +948,10 @@
         <v>2300.6576784499</v>
       </c>
       <c r="S8">
-        <v>0.1119455351071709</v>
+        <v>0.1602766375524085</v>
       </c>
       <c r="T8">
-        <v>0.1466087680827755</v>
+        <v>0.182870423325551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J9">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +992,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N9">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O9">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P9">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q9">
-        <v>35.29262908784666</v>
+        <v>30.14577414411111</v>
       </c>
       <c r="R9">
-        <v>317.6336617906199</v>
+        <v>271.311967297</v>
       </c>
       <c r="S9">
-        <v>0.01545543718662159</v>
+        <v>0.0189011039119</v>
       </c>
       <c r="T9">
-        <v>0.0202411163959514</v>
+        <v>0.02156554396494101</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I10">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J10">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N10">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O10">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P10">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q10">
-        <v>378.5817423012099</v>
+        <v>71.54032615041666</v>
       </c>
       <c r="R10">
-        <v>2271.49045380726</v>
+        <v>429.2419569025</v>
       </c>
       <c r="S10">
-        <v>0.1657894718915403</v>
+        <v>0.04485508091436387</v>
       </c>
       <c r="T10">
-        <v>0.1447500948375963</v>
+        <v>0.03411879094535073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>633.6843799999999</v>
       </c>
       <c r="I11">
-        <v>0.3329640774731549</v>
+        <v>0.2954065074566193</v>
       </c>
       <c r="J11">
-        <v>0.3636892687455194</v>
+        <v>0.3199898083081954</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N11">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O11">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P11">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q11">
-        <v>51.66632937329111</v>
+        <v>76.97772538238222</v>
       </c>
       <c r="R11">
-        <v>464.99696435962</v>
+        <v>692.79952844144</v>
       </c>
       <c r="S11">
-        <v>0.0226258493325787</v>
+        <v>0.04826427675728908</v>
       </c>
       <c r="T11">
-        <v>0.02963180169981934</v>
+        <v>0.05506796783917416</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H12">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I12">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J12">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N12">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O12">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P12">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q12">
-        <v>14.39178011034056</v>
+        <v>19.04951450414022</v>
       </c>
       <c r="R12">
-        <v>129.526020993065</v>
+        <v>171.445630537262</v>
       </c>
       <c r="S12">
-        <v>0.006302484661751501</v>
+        <v>0.01194385824669016</v>
       </c>
       <c r="T12">
-        <v>0.008254009516640268</v>
+        <v>0.01362755325459335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H13">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I13">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J13">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P13">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q13">
-        <v>93.95357031566611</v>
+        <v>132.1190092521811</v>
       </c>
       <c r="R13">
-        <v>845.582132840995</v>
+        <v>1189.07108326963</v>
       </c>
       <c r="S13">
-        <v>0.04114438459255092</v>
+        <v>0.08283731944235281</v>
       </c>
       <c r="T13">
-        <v>0.05388448527994416</v>
+        <v>0.09451468351788692</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H14">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I14">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J14">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N14">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O14">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P14">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q14">
-        <v>12.97142849942567</v>
+        <v>15.58053101654445</v>
       </c>
       <c r="R14">
-        <v>116.742856494831</v>
+        <v>140.2247791489</v>
       </c>
       <c r="S14">
-        <v>0.005680480700222568</v>
+        <v>0.009768839716588108</v>
       </c>
       <c r="T14">
-        <v>0.007439405928787827</v>
+        <v>0.01114592795090165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H15">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I15">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J15">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N15">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O15">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P15">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q15">
-        <v>139.1436718762105</v>
+        <v>36.97487631904167</v>
       </c>
       <c r="R15">
-        <v>834.862031257263</v>
+        <v>221.84925791425</v>
       </c>
       <c r="S15">
-        <v>0.06093414789943236</v>
+        <v>0.02318288381299966</v>
       </c>
       <c r="T15">
-        <v>0.05320134980019209</v>
+        <v>0.01763394358458953</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>77.63463966666667</v>
+        <v>109.1710686666667</v>
       </c>
       <c r="H16">
-        <v>232.903919</v>
+        <v>327.513206</v>
       </c>
       <c r="I16">
-        <v>0.1223773868778609</v>
+        <v>0.1526777925792968</v>
       </c>
       <c r="J16">
-        <v>0.1336701024397598</v>
+        <v>0.1653834169091284</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N16">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O16">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P16">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q16">
-        <v>18.98940698425345</v>
+        <v>39.78513977348089</v>
       </c>
       <c r="R16">
-        <v>170.904662858281</v>
+        <v>358.0662579613281</v>
       </c>
       <c r="S16">
-        <v>0.008315889023903532</v>
+        <v>0.02494489136066607</v>
       </c>
       <c r="T16">
-        <v>0.0108908519141955</v>
+        <v>0.02846130860115698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H17">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I17">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J17">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N17">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O17">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P17">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q17">
-        <v>29.80565722502916</v>
+        <v>28.75632239945433</v>
       </c>
       <c r="R17">
-        <v>178.833943350175</v>
+        <v>172.537934396726</v>
       </c>
       <c r="S17">
-        <v>0.01305256862277921</v>
+        <v>0.01802993133292482</v>
       </c>
       <c r="T17">
-        <v>0.01139614309922856</v>
+        <v>0.01371437628396071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H18">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I18">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J18">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P18">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q18">
-        <v>194.5796760669208</v>
+        <v>199.4411366403316</v>
       </c>
       <c r="R18">
-        <v>1167.478056401525</v>
+        <v>1196.64681984199</v>
       </c>
       <c r="S18">
-        <v>0.08521082274035141</v>
+        <v>0.1250476312177488</v>
       </c>
       <c r="T18">
-        <v>0.07439721311691352</v>
+        <v>0.09511684965801591</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H19">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I19">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J19">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1612,28 +1612,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N19">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O19">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P19">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q19">
-        <v>26.8640813442575</v>
+        <v>23.51969510661667</v>
       </c>
       <c r="R19">
-        <v>161.184488065545</v>
+        <v>141.1181706397</v>
       </c>
       <c r="S19">
-        <v>0.01176438629037816</v>
+        <v>0.01474661752128892</v>
       </c>
       <c r="T19">
-        <v>0.01027143648996236</v>
+        <v>0.01121694020172382</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H20">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I20">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J20">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N20">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O20">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P20">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q20">
-        <v>288.1692575329462</v>
+        <v>55.8156725663125</v>
       </c>
       <c r="R20">
-        <v>1152.677030131785</v>
+        <v>223.26269026525</v>
       </c>
       <c r="S20">
-        <v>0.126195808417388</v>
+        <v>0.0349958777653267</v>
       </c>
       <c r="T20">
-        <v>0.07345402185117536</v>
+        <v>0.01774629188168323</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>160.7828525</v>
+        <v>164.799919</v>
       </c>
       <c r="H21">
-        <v>321.565705</v>
+        <v>329.599838</v>
       </c>
       <c r="I21">
-        <v>0.2534459543858325</v>
+        <v>0.2304757859153342</v>
       </c>
       <c r="J21">
-        <v>0.1845555923361838</v>
+        <v>0.166437097565877</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N21">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O21">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P21">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q21">
-        <v>39.32743212721584</v>
+        <v>60.05792461455733</v>
       </c>
       <c r="R21">
-        <v>235.964592763295</v>
+        <v>360.347547687344</v>
       </c>
       <c r="S21">
-        <v>0.0172223683149357</v>
+        <v>0.0376557280780449</v>
       </c>
       <c r="T21">
-        <v>0.01503677777890407</v>
+        <v>0.02864263954049336</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H22">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I22">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J22">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1853783333333333</v>
+        <v>0.1744923333333333</v>
       </c>
       <c r="N22">
-        <v>0.5561349999999999</v>
+        <v>0.523477</v>
       </c>
       <c r="O22">
-        <v>0.05150040234182901</v>
+        <v>0.07822917822503123</v>
       </c>
       <c r="P22">
-        <v>0.06174910743679609</v>
+        <v>0.08239975633156223</v>
       </c>
       <c r="Q22">
-        <v>11.26220967797444</v>
+        <v>21.09523807488533</v>
       </c>
       <c r="R22">
-        <v>101.35988710177</v>
+        <v>189.857142673968</v>
       </c>
       <c r="S22">
-        <v>0.004931975280935808</v>
+        <v>0.01322650680634673</v>
       </c>
       <c r="T22">
-        <v>0.006459130500028151</v>
+        <v>0.01509101348600485</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H23">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I23">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J23">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.630605</v>
       </c>
       <c r="O23">
-        <v>0.3362090468038446</v>
+        <v>0.5425629886502931</v>
       </c>
       <c r="P23">
-        <v>0.4031154633417589</v>
+        <v>0.5714882742434749</v>
       </c>
       <c r="Q23">
-        <v>73.52285824107888</v>
+        <v>146.3072433571467</v>
       </c>
       <c r="R23">
-        <v>661.70572416971</v>
+        <v>1316.76519021432</v>
       </c>
       <c r="S23">
-        <v>0.03219731560653789</v>
+        <v>0.09173320268828711</v>
       </c>
       <c r="T23">
-        <v>0.04216701248627529</v>
+        <v>0.1046645965674837</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H24">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I24">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J24">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1922,28 +1922,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.167083</v>
+        <v>0.1427166666666667</v>
       </c>
       <c r="N24">
-        <v>0.5012489999999999</v>
+        <v>0.42815</v>
       </c>
       <c r="O24">
-        <v>0.04641773161811331</v>
+        <v>0.06398337015197826</v>
       </c>
       <c r="P24">
-        <v>0.05565497289972147</v>
+        <v>0.06739447133944447</v>
       </c>
       <c r="Q24">
-        <v>10.15072120775533</v>
+        <v>17.25372114106667</v>
       </c>
       <c r="R24">
-        <v>91.35649086979798</v>
+        <v>155.2834902696</v>
       </c>
       <c r="S24">
-        <v>0.004445229445357319</v>
+        <v>0.01081791346924001</v>
       </c>
       <c r="T24">
-        <v>0.005821666868671475</v>
+        <v>0.01234288693492356</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H25">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I25">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J25">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.7922885</v>
+        <v>0.3386875</v>
       </c>
       <c r="N25">
-        <v>3.584577</v>
+        <v>0.6773750000000001</v>
       </c>
       <c r="O25">
-        <v>0.4979199953031181</v>
+        <v>0.15184188493529</v>
       </c>
       <c r="P25">
-        <v>0.3980048554550032</v>
+        <v>0.1066246175956001</v>
       </c>
       <c r="Q25">
-        <v>108.886127777009</v>
+        <v>40.94560092700001</v>
       </c>
       <c r="R25">
-        <v>653.316766662054</v>
+        <v>245.673605562</v>
       </c>
       <c r="S25">
-        <v>0.04768368783643639</v>
+        <v>0.02567248909106547</v>
       </c>
       <c r="T25">
-        <v>0.04163242851178115</v>
+        <v>0.01952764927605709</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>60.75256733333333</v>
+        <v>120.894928</v>
       </c>
       <c r="H26">
-        <v>182.257702</v>
+        <v>362.684784</v>
       </c>
       <c r="I26">
-        <v>0.09576576214298856</v>
+        <v>0.169073830333483</v>
       </c>
       <c r="J26">
-        <v>0.1046028156219012</v>
+        <v>0.1831439091310082</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2445996666666667</v>
+        <v>0.3644293333333333</v>
       </c>
       <c r="N26">
-        <v>0.7337990000000001</v>
+        <v>1.093288</v>
       </c>
       <c r="O26">
-        <v>0.06795282393309501</v>
+        <v>0.1633825780374074</v>
       </c>
       <c r="P26">
-        <v>0.08147560086672039</v>
+        <v>0.1720928804899184</v>
       </c>
       <c r="Q26">
-        <v>14.86005771887756</v>
+        <v>44.05765801442134</v>
       </c>
       <c r="R26">
-        <v>133.740519469898</v>
+        <v>396.518922129792</v>
       </c>
       <c r="S26">
-        <v>0.006507553973721157</v>
+        <v>0.02762371827854367</v>
       </c>
       <c r="T26">
-        <v>0.008522577255145169</v>
+        <v>0.03151776286653907</v>
       </c>
     </row>
   </sheetData>
